--- a/Datasets/Annotated/Annotated_Restaurant_Reviews.xlsx
+++ b/Datasets/Annotated/Annotated_Restaurant_Reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Annotated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94779CC6-5678-4956-9281-7C2F7A1D94E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AFC56B-1823-4C7F-8EBD-EE13BD274C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1001</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1001</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -10610,7 +10610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -10619,6 +10619,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10957,20 +10960,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A792" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B808" sqref="B808"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="132.5703125" customWidth="1"/>
+    <col min="2" max="2" width="96.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="68.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10983,17 +10987,20 @@
       <c r="D1" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="E1">
-        <v>1</v>
+      <c r="E1" s="4">
+        <v>0</v>
       </c>
       <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
         <v>2</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -11004,19 +11011,23 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <f>COUNTIF(C2:C1001,0)</f>
+        <v>673</v>
+      </c>
+      <c r="F2">
         <f>COUNTIF(C2:C1001,1)</f>
         <v>272</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>COUNTIF(C2:C1001,2)</f>
         <v>29</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>COUNTIF(C2:C1001,3)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -11027,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -11038,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -11049,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1</v>
       </c>
@@ -11060,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1</v>
       </c>
@@ -11071,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-1</v>
       </c>
@@ -11082,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1</v>
       </c>
@@ -11093,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1</v>
       </c>
@@ -11104,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1</v>
       </c>
@@ -11115,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1</v>
       </c>
@@ -11126,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1</v>
       </c>
@@ -11137,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1</v>
       </c>
@@ -11148,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1</v>
       </c>
@@ -11159,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1</v>
       </c>
@@ -18034,7 +18045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>1</v>
       </c>
@@ -18045,7 +18056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>1</v>
       </c>
@@ -18056,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>1</v>
       </c>
@@ -18067,7 +18078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>1</v>
       </c>
@@ -18078,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>1</v>
       </c>
@@ -18089,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>1</v>
       </c>
@@ -18100,7 +18111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>1</v>
       </c>
@@ -18111,7 +18122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>1</v>
       </c>
@@ -18122,7 +18133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>1</v>
       </c>
@@ -18133,7 +18144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>-1</v>
       </c>
@@ -18144,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>1</v>
       </c>
@@ -18154,11 +18165,11 @@
       <c r="C651">
         <v>0</v>
       </c>
-      <c r="E651" t="s">
+      <c r="F651" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>1</v>
       </c>
@@ -18169,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>1</v>
       </c>
@@ -18180,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>-1</v>
       </c>
@@ -18191,7 +18202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>-1</v>
       </c>
@@ -18202,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>1</v>
       </c>
@@ -20886,7 +20897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>-1</v>
       </c>
@@ -20897,7 +20908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>-1</v>
       </c>
@@ -20908,7 +20919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>-1</v>
       </c>
@@ -20919,7 +20930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>-1</v>
       </c>
@@ -20930,7 +20941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>-1</v>
       </c>
@@ -20941,7 +20952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>-1</v>
       </c>
@@ -20952,7 +20963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>-1</v>
       </c>
@@ -20963,7 +20974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>-1</v>
       </c>
@@ -20974,7 +20985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>1</v>
       </c>
@@ -20988,7 +20999,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>1</v>
       </c>
@@ -21002,7 +21013,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>1</v>
       </c>
@@ -21013,7 +21024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>1</v>
       </c>
@@ -21024,7 +21035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>1</v>
       </c>
@@ -21034,11 +21045,11 @@
       <c r="C909">
         <v>1</v>
       </c>
-      <c r="E909" t="s">
+      <c r="F909" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>1</v>
       </c>
@@ -21049,7 +21060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>1</v>
       </c>
@@ -21060,7 +21071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>1</v>
       </c>
@@ -21423,7 +21434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>1</v>
       </c>
@@ -21434,7 +21445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>1</v>
       </c>
@@ -21445,7 +21456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>-1</v>
       </c>
@@ -21459,7 +21470,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>-1</v>
       </c>
@@ -21470,7 +21481,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>-1</v>
       </c>
@@ -21480,11 +21491,11 @@
       <c r="C949">
         <v>1.2</v>
       </c>
-      <c r="E949" t="s">
+      <c r="F949" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>-1</v>
       </c>
@@ -21494,11 +21505,11 @@
       <c r="C950">
         <v>1.2</v>
       </c>
-      <c r="E950" t="s">
+      <c r="F950" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>-1</v>
       </c>
@@ -21509,7 +21520,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>-1</v>
       </c>
@@ -21520,7 +21531,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>-1</v>
       </c>
@@ -21531,7 +21542,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>-1</v>
       </c>
@@ -21545,7 +21556,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>-1</v>
       </c>
@@ -21556,7 +21567,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>-1</v>
       </c>
@@ -21567,7 +21578,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>1</v>
       </c>
@@ -21578,7 +21589,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>1</v>
       </c>
@@ -21589,7 +21600,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>1</v>
       </c>
@@ -21600,7 +21611,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>-1</v>
       </c>
@@ -22084,7 +22095,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1001">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H1001">
     <sortCondition ref="C2:C1001"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datasets/Annotated/Annotated_Restaurant_Reviews.xlsx
+++ b/Datasets/Annotated/Annotated_Restaurant_Reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\Annotated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AFC56B-1823-4C7F-8EBD-EE13BD274C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F6499C-C014-4920-A185-5F772C87FC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10962,8 +10962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A976" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A946" sqref="A946:C946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11005,10 +11005,10 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>802</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>COUNTIF(C2:C1001,0)</f>
@@ -11032,7 +11032,7 @@
         <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -11043,7 +11043,7 @@
         <v>-1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -11054,7 +11054,7 @@
         <v>-1</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>-1</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -11076,7 +11076,7 @@
         <v>-1</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -11087,7 +11087,7 @@
         <v>-1</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -11098,7 +11098,7 @@
         <v>-1</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>-1</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -11120,7 +11120,7 @@
         <v>-1</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -11131,7 +11131,7 @@
         <v>-1</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>-1</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>-1</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -11164,7 +11164,7 @@
         <v>-1</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>-1</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -11186,7 +11186,7 @@
         <v>-1</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>-1</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>-1</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -11219,7 +11219,7 @@
         <v>-1</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -11230,7 +11230,7 @@
         <v>-1</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -11241,7 +11241,7 @@
         <v>-1</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -11252,7 +11252,7 @@
         <v>-1</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -11263,7 +11263,7 @@
         <v>-1</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -11274,7 +11274,7 @@
         <v>-1</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -11285,7 +11285,7 @@
         <v>-1</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>-1</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>-1</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>-1</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11329,7 +11329,7 @@
         <v>-1</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -11340,7 +11340,7 @@
         <v>-1</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>-1</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -11362,7 +11362,7 @@
         <v>-1</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>-1</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>-1</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -11395,7 +11395,7 @@
         <v>-1</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -11406,7 +11406,7 @@
         <v>-1</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>-1</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -11428,7 +11428,7 @@
         <v>-1</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -11439,7 +11439,7 @@
         <v>-1</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -11450,7 +11450,7 @@
         <v>-1</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>-1</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>-1</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -11483,7 +11483,7 @@
         <v>-1</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -11494,7 +11494,7 @@
         <v>-1</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -11505,7 +11505,7 @@
         <v>-1</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -11516,7 +11516,7 @@
         <v>-1</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -11527,7 +11527,7 @@
         <v>-1</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -11538,7 +11538,7 @@
         <v>-1</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -11549,7 +11549,7 @@
         <v>-1</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>803</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>-1</v>
       </c>
       <c r="B51" t="s">
-        <v>803</v>
+        <v>185</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -11571,7 +11571,7 @@
         <v>-1</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -11582,7 +11582,7 @@
         <v>-1</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>-1</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -11604,7 +11604,7 @@
         <v>-1</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -11615,7 +11615,7 @@
         <v>-1</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>-1</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -11637,7 +11637,7 @@
         <v>-1</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -11648,7 +11648,7 @@
         <v>-1</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>-1</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>-1</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -11681,7 +11681,7 @@
         <v>-1</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -11692,7 +11692,7 @@
         <v>-1</v>
       </c>
       <c r="B63" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -11703,7 +11703,7 @@
         <v>-1</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -11714,7 +11714,7 @@
         <v>-1</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -11725,7 +11725,7 @@
         <v>-1</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -11736,7 +11736,7 @@
         <v>-1</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>-1</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -11758,7 +11758,7 @@
         <v>-1</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -11769,7 +11769,7 @@
         <v>-1</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -11780,7 +11780,7 @@
         <v>-1</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -11791,7 +11791,7 @@
         <v>-1</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>-1</v>
       </c>
       <c r="B73" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -11813,7 +11813,7 @@
         <v>-1</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -11824,7 +11824,7 @@
         <v>-1</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>-1</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -11846,7 +11846,7 @@
         <v>-1</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -11857,7 +11857,7 @@
         <v>-1</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -11868,7 +11868,7 @@
         <v>-1</v>
       </c>
       <c r="B79" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -11879,7 +11879,7 @@
         <v>-1</v>
       </c>
       <c r="B80" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -11890,7 +11890,7 @@
         <v>-1</v>
       </c>
       <c r="B81" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -11901,7 +11901,7 @@
         <v>-1</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -11912,7 +11912,7 @@
         <v>-1</v>
       </c>
       <c r="B83" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -11923,7 +11923,7 @@
         <v>-1</v>
       </c>
       <c r="B84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -11934,7 +11934,7 @@
         <v>-1</v>
       </c>
       <c r="B85" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>-1</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -11956,7 +11956,7 @@
         <v>-1</v>
       </c>
       <c r="B87" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -11967,7 +11967,7 @@
         <v>-1</v>
       </c>
       <c r="B88" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -11978,7 +11978,7 @@
         <v>-1</v>
       </c>
       <c r="B89" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -11989,7 +11989,7 @@
         <v>-1</v>
       </c>
       <c r="B90" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -12000,7 +12000,7 @@
         <v>-1</v>
       </c>
       <c r="B91" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>-1</v>
       </c>
       <c r="B92" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -12022,7 +12022,7 @@
         <v>-1</v>
       </c>
       <c r="B93" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -12033,7 +12033,7 @@
         <v>-1</v>
       </c>
       <c r="B94" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>-1</v>
       </c>
       <c r="B95" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -12055,7 +12055,7 @@
         <v>-1</v>
       </c>
       <c r="B96" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>-1</v>
       </c>
       <c r="B97" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -12077,7 +12077,7 @@
         <v>-1</v>
       </c>
       <c r="B98" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>-1</v>
       </c>
       <c r="B99" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -12099,7 +12099,7 @@
         <v>-1</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -12110,7 +12110,7 @@
         <v>-1</v>
       </c>
       <c r="B101" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -12121,7 +12121,7 @@
         <v>-1</v>
       </c>
       <c r="B102" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>-1</v>
       </c>
       <c r="B103" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -12143,7 +12143,7 @@
         <v>-1</v>
       </c>
       <c r="B104" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -12154,7 +12154,7 @@
         <v>-1</v>
       </c>
       <c r="B105" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -12165,7 +12165,7 @@
         <v>-1</v>
       </c>
       <c r="B106" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -12176,7 +12176,7 @@
         <v>-1</v>
       </c>
       <c r="B107" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -12187,7 +12187,7 @@
         <v>-1</v>
       </c>
       <c r="B108" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -12198,7 +12198,7 @@
         <v>-1</v>
       </c>
       <c r="B109" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -12209,7 +12209,7 @@
         <v>-1</v>
       </c>
       <c r="B110" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>-1</v>
       </c>
       <c r="B111" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -12231,7 +12231,7 @@
         <v>-1</v>
       </c>
       <c r="B112" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -12242,7 +12242,7 @@
         <v>-1</v>
       </c>
       <c r="B113" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>-1</v>
       </c>
       <c r="B114" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>-1</v>
       </c>
       <c r="B115" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -12275,7 +12275,7 @@
         <v>-1</v>
       </c>
       <c r="B116" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -12286,7 +12286,7 @@
         <v>-1</v>
       </c>
       <c r="B117" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>-1</v>
       </c>
       <c r="B118" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -12308,7 +12308,7 @@
         <v>-1</v>
       </c>
       <c r="B119" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -12319,7 +12319,7 @@
         <v>-1</v>
       </c>
       <c r="B120" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>-1</v>
       </c>
       <c r="B121" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -12341,7 +12341,7 @@
         <v>-1</v>
       </c>
       <c r="B122" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -12352,7 +12352,7 @@
         <v>-1</v>
       </c>
       <c r="B123" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>-1</v>
       </c>
       <c r="B124" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -12374,7 +12374,7 @@
         <v>-1</v>
       </c>
       <c r="B125" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -12385,7 +12385,7 @@
         <v>-1</v>
       </c>
       <c r="B126" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -12396,7 +12396,7 @@
         <v>-1</v>
       </c>
       <c r="B127" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -12407,7 +12407,7 @@
         <v>-1</v>
       </c>
       <c r="B128" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -12418,7 +12418,7 @@
         <v>-1</v>
       </c>
       <c r="B129" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>-1</v>
       </c>
       <c r="B130" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -12440,7 +12440,7 @@
         <v>-1</v>
       </c>
       <c r="B131" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -12451,7 +12451,7 @@
         <v>-1</v>
       </c>
       <c r="B132" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>-1</v>
       </c>
       <c r="B133" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -12473,7 +12473,7 @@
         <v>-1</v>
       </c>
       <c r="B134" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>-1</v>
       </c>
       <c r="B135" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -12495,7 +12495,7 @@
         <v>-1</v>
       </c>
       <c r="B136" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>-1</v>
       </c>
       <c r="B137" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -12517,7 +12517,7 @@
         <v>-1</v>
       </c>
       <c r="B138" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -12528,7 +12528,7 @@
         <v>-1</v>
       </c>
       <c r="B139" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -12539,7 +12539,7 @@
         <v>-1</v>
       </c>
       <c r="B140" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -12550,7 +12550,7 @@
         <v>-1</v>
       </c>
       <c r="B141" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -12561,7 +12561,7 @@
         <v>-1</v>
       </c>
       <c r="B142" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>-1</v>
       </c>
       <c r="B143" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -12583,7 +12583,7 @@
         <v>-1</v>
       </c>
       <c r="B144" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>-1</v>
       </c>
       <c r="B145" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>-1</v>
       </c>
       <c r="B146" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -12616,7 +12616,7 @@
         <v>-1</v>
       </c>
       <c r="B147" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -12627,7 +12627,7 @@
         <v>-1</v>
       </c>
       <c r="B148" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -12638,7 +12638,7 @@
         <v>-1</v>
       </c>
       <c r="B149" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -12649,7 +12649,7 @@
         <v>-1</v>
       </c>
       <c r="B150" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -12660,7 +12660,7 @@
         <v>-1</v>
       </c>
       <c r="B151" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>-1</v>
       </c>
       <c r="B152" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         <v>-1</v>
       </c>
       <c r="B153" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -12693,7 +12693,7 @@
         <v>-1</v>
       </c>
       <c r="B154" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -12704,7 +12704,7 @@
         <v>-1</v>
       </c>
       <c r="B155" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>-1</v>
       </c>
       <c r="B156" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -12726,7 +12726,7 @@
         <v>-1</v>
       </c>
       <c r="B157" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -12737,7 +12737,7 @@
         <v>-1</v>
       </c>
       <c r="B158" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>-1</v>
       </c>
       <c r="B159" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -12759,7 +12759,7 @@
         <v>-1</v>
       </c>
       <c r="B160" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -12770,7 +12770,7 @@
         <v>-1</v>
       </c>
       <c r="B161" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -12781,7 +12781,7 @@
         <v>-1</v>
       </c>
       <c r="B162" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -12792,7 +12792,7 @@
         <v>-1</v>
       </c>
       <c r="B163" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -12803,7 +12803,7 @@
         <v>-1</v>
       </c>
       <c r="B164" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>-1</v>
       </c>
       <c r="B165" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -12825,7 +12825,7 @@
         <v>-1</v>
       </c>
       <c r="B166" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -12836,7 +12836,7 @@
         <v>-1</v>
       </c>
       <c r="B167" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -12847,7 +12847,7 @@
         <v>-1</v>
       </c>
       <c r="B168" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -12858,7 +12858,7 @@
         <v>-1</v>
       </c>
       <c r="B169" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -12869,7 +12869,7 @@
         <v>-1</v>
       </c>
       <c r="B170" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>-1</v>
       </c>
       <c r="B171" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -12891,7 +12891,7 @@
         <v>-1</v>
       </c>
       <c r="B172" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -12902,7 +12902,7 @@
         <v>-1</v>
       </c>
       <c r="B173" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -12913,7 +12913,7 @@
         <v>-1</v>
       </c>
       <c r="B174" t="s">
-        <v>584</v>
+        <v>272</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -12924,7 +12924,7 @@
         <v>-1</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>587</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -12935,7 +12935,7 @@
         <v>-1</v>
       </c>
       <c r="B176" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -12946,7 +12946,7 @@
         <v>-1</v>
       </c>
       <c r="B177" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>-1</v>
       </c>
       <c r="B178" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -12968,7 +12968,7 @@
         <v>-1</v>
       </c>
       <c r="B179" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -12979,7 +12979,7 @@
         <v>-1</v>
       </c>
       <c r="B180" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -12990,7 +12990,7 @@
         <v>-1</v>
       </c>
       <c r="B181" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -13001,7 +13001,7 @@
         <v>-1</v>
       </c>
       <c r="B182" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -13012,7 +13012,7 @@
         <v>-1</v>
       </c>
       <c r="B183" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>-1</v>
       </c>
       <c r="B184" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -13034,7 +13034,7 @@
         <v>-1</v>
       </c>
       <c r="B185" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -13045,7 +13045,7 @@
         <v>-1</v>
       </c>
       <c r="B186" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>-1</v>
       </c>
       <c r="B187" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -13067,7 +13067,7 @@
         <v>-1</v>
       </c>
       <c r="B188" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -13078,7 +13078,7 @@
         <v>-1</v>
       </c>
       <c r="B189" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>-1</v>
       </c>
       <c r="B190" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -13100,7 +13100,7 @@
         <v>-1</v>
       </c>
       <c r="B191" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -13111,7 +13111,7 @@
         <v>-1</v>
       </c>
       <c r="B192" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -13122,7 +13122,7 @@
         <v>-1</v>
       </c>
       <c r="B193" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>-1</v>
       </c>
       <c r="B194" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -13144,7 +13144,7 @@
         <v>-1</v>
       </c>
       <c r="B195" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -13155,7 +13155,7 @@
         <v>-1</v>
       </c>
       <c r="B196" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>-1</v>
       </c>
       <c r="B197" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -13177,7 +13177,7 @@
         <v>-1</v>
       </c>
       <c r="B198" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -13188,7 +13188,7 @@
         <v>-1</v>
       </c>
       <c r="B199" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>-1</v>
       </c>
       <c r="B200" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -13210,7 +13210,7 @@
         <v>-1</v>
       </c>
       <c r="B201" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -13221,7 +13221,7 @@
         <v>-1</v>
       </c>
       <c r="B202" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -13232,7 +13232,7 @@
         <v>-1</v>
       </c>
       <c r="B203" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -13243,7 +13243,7 @@
         <v>-1</v>
       </c>
       <c r="B204" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>-1</v>
       </c>
       <c r="B205" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>-1</v>
       </c>
       <c r="B206" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -13276,7 +13276,7 @@
         <v>-1</v>
       </c>
       <c r="B207" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -13287,7 +13287,7 @@
         <v>-1</v>
       </c>
       <c r="B208" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>-1</v>
       </c>
       <c r="B209" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -13309,7 +13309,7 @@
         <v>-1</v>
       </c>
       <c r="B210" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -13320,7 +13320,7 @@
         <v>-1</v>
       </c>
       <c r="B211" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -13331,7 +13331,7 @@
         <v>-1</v>
       </c>
       <c r="B212" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>-1</v>
       </c>
       <c r="B213" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -13353,7 +13353,7 @@
         <v>-1</v>
       </c>
       <c r="B214" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -13364,7 +13364,7 @@
         <v>-1</v>
       </c>
       <c r="B215" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>-1</v>
       </c>
       <c r="B216" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -13386,7 +13386,7 @@
         <v>-1</v>
       </c>
       <c r="B217" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -13397,7 +13397,7 @@
         <v>-1</v>
       </c>
       <c r="B218" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>-1</v>
       </c>
       <c r="B219" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -13419,7 +13419,7 @@
         <v>-1</v>
       </c>
       <c r="B220" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -13430,7 +13430,7 @@
         <v>-1</v>
       </c>
       <c r="B221" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>-1</v>
       </c>
       <c r="B222" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -13452,7 +13452,7 @@
         <v>-1</v>
       </c>
       <c r="B223" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -13463,7 +13463,7 @@
         <v>-1</v>
       </c>
       <c r="B224" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>-1</v>
       </c>
       <c r="B225" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -13485,7 +13485,7 @@
         <v>-1</v>
       </c>
       <c r="B226" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -13496,7 +13496,7 @@
         <v>-1</v>
       </c>
       <c r="B227" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>-1</v>
       </c>
       <c r="B228" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -13518,7 +13518,7 @@
         <v>-1</v>
       </c>
       <c r="B229" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -13529,7 +13529,7 @@
         <v>-1</v>
       </c>
       <c r="B230" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -13540,7 +13540,7 @@
         <v>-1</v>
       </c>
       <c r="B231" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -13551,7 +13551,7 @@
         <v>-1</v>
       </c>
       <c r="B232" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -13562,7 +13562,7 @@
         <v>-1</v>
       </c>
       <c r="B233" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -13573,7 +13573,7 @@
         <v>-1</v>
       </c>
       <c r="B234" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>-1</v>
       </c>
       <c r="B235" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -13595,7 +13595,7 @@
         <v>-1</v>
       </c>
       <c r="B236" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -13606,7 +13606,7 @@
         <v>-1</v>
       </c>
       <c r="B237" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>-1</v>
       </c>
       <c r="B238" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>-1</v>
       </c>
       <c r="B239" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -13639,7 +13639,7 @@
         <v>-1</v>
       </c>
       <c r="B240" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>-1</v>
       </c>
       <c r="B241" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -13661,7 +13661,7 @@
         <v>-1</v>
       </c>
       <c r="B242" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -13672,7 +13672,7 @@
         <v>-1</v>
       </c>
       <c r="B243" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -13680,10 +13680,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B244" t="s">
-        <v>694</v>
+        <v>2</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -13694,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -13705,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="B246" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="B247" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -13727,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -13738,7 +13738,7 @@
         <v>1</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -13749,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -13771,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="B252" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -13782,7 +13782,7 @@
         <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="B254" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -13804,7 +13804,7 @@
         <v>1</v>
       </c>
       <c r="B255" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -13837,7 +13837,7 @@
         <v>1</v>
       </c>
       <c r="B258" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="B259" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="B260" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -13870,7 +13870,7 @@
         <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -13881,7 +13881,7 @@
         <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -13903,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -13914,7 +13914,7 @@
         <v>1</v>
       </c>
       <c r="B265" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -13936,7 +13936,7 @@
         <v>1</v>
       </c>
       <c r="B267" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -13947,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="B268" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -13958,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="B269" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -13969,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="B270" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -13980,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="B271" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -13991,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="B272" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="B274" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -14024,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -14035,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="B276" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -14046,7 +14046,7 @@
         <v>1</v>
       </c>
       <c r="B277" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="B278" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="B279" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -14079,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="B280" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -14090,7 +14090,7 @@
         <v>1</v>
       </c>
       <c r="B281" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -14101,7 +14101,7 @@
         <v>1</v>
       </c>
       <c r="B282" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -14112,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="B283" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -14123,7 +14123,7 @@
         <v>1</v>
       </c>
       <c r="B284" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -14134,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="B285" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -14145,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="B286" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>1</v>
       </c>
       <c r="B287" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -14167,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="B288" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -14178,7 +14178,7 @@
         <v>1</v>
       </c>
       <c r="B289" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -14189,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="B290" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -14211,7 +14211,7 @@
         <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -14222,7 +14222,7 @@
         <v>1</v>
       </c>
       <c r="B293" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -14233,7 +14233,7 @@
         <v>1</v>
       </c>
       <c r="B294" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -14244,7 +14244,7 @@
         <v>1</v>
       </c>
       <c r="B295" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -14255,7 +14255,7 @@
         <v>1</v>
       </c>
       <c r="B296" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -14266,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="B297" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -14277,7 +14277,7 @@
         <v>1</v>
       </c>
       <c r="B298" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -14288,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="B299" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -14299,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="B300" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -14310,7 +14310,7 @@
         <v>1</v>
       </c>
       <c r="B301" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -14321,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="B302" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -14332,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="B303" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -14343,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="B304" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -14354,7 +14354,7 @@
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -14365,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="B306" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -14376,7 +14376,7 @@
         <v>1</v>
       </c>
       <c r="B307" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="B308" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -14398,7 +14398,7 @@
         <v>1</v>
       </c>
       <c r="B309" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -14409,7 +14409,7 @@
         <v>1</v>
       </c>
       <c r="B310" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -14420,7 +14420,7 @@
         <v>1</v>
       </c>
       <c r="B311" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -14431,7 +14431,7 @@
         <v>1</v>
       </c>
       <c r="B312" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -14442,7 +14442,7 @@
         <v>1</v>
       </c>
       <c r="B313" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -14453,7 +14453,7 @@
         <v>1</v>
       </c>
       <c r="B314" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -14464,7 +14464,7 @@
         <v>1</v>
       </c>
       <c r="B315" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -14475,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="B316" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -14486,7 +14486,7 @@
         <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -14497,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="B318" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C318">
         <v>0</v>
@@ -14508,7 +14508,7 @@
         <v>1</v>
       </c>
       <c r="B319" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -14519,7 +14519,7 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>1</v>
       </c>
       <c r="B321" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -14541,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="B322" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -14552,7 +14552,7 @@
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -14563,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="B324" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -14574,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="B325" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="B326" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -14596,7 +14596,7 @@
         <v>1</v>
       </c>
       <c r="B327" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -14607,7 +14607,7 @@
         <v>1</v>
       </c>
       <c r="B328" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -14618,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -14629,7 +14629,7 @@
         <v>1</v>
       </c>
       <c r="B330" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -14640,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="B331" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -14651,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="B332" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -14662,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="B333" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -14673,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="B334" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -14684,7 +14684,7 @@
         <v>1</v>
       </c>
       <c r="B335" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -14695,7 +14695,7 @@
         <v>1</v>
       </c>
       <c r="B336" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -14706,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="B337" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -14717,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="B338" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -14728,7 +14728,7 @@
         <v>1</v>
       </c>
       <c r="B339" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -14739,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="B340" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -14750,7 +14750,7 @@
         <v>1</v>
       </c>
       <c r="B341" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="B342" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -14772,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="B343" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -14783,7 +14783,7 @@
         <v>1</v>
       </c>
       <c r="B344" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -14794,7 +14794,7 @@
         <v>1</v>
       </c>
       <c r="B345" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="B346" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -14816,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="B347" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -14827,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="B348" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C348">
         <v>0</v>
@@ -14838,7 +14838,7 @@
         <v>1</v>
       </c>
       <c r="B349" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -14849,7 +14849,7 @@
         <v>1</v>
       </c>
       <c r="B350" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="B351" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="B352" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -14882,7 +14882,7 @@
         <v>1</v>
       </c>
       <c r="B353" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -14893,7 +14893,7 @@
         <v>1</v>
       </c>
       <c r="B354" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -14904,7 +14904,7 @@
         <v>1</v>
       </c>
       <c r="B355" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -14915,7 +14915,7 @@
         <v>1</v>
       </c>
       <c r="B356" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -14926,7 +14926,7 @@
         <v>1</v>
       </c>
       <c r="B357" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -14937,7 +14937,7 @@
         <v>1</v>
       </c>
       <c r="B358" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="B359" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -14959,7 +14959,7 @@
         <v>1</v>
       </c>
       <c r="B360" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -14970,7 +14970,7 @@
         <v>1</v>
       </c>
       <c r="B361" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="B362" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -14992,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="B363" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -15003,7 +15003,7 @@
         <v>1</v>
       </c>
       <c r="B364" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -15014,7 +15014,7 @@
         <v>1</v>
       </c>
       <c r="B365" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -15025,7 +15025,7 @@
         <v>1</v>
       </c>
       <c r="B366" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -15036,7 +15036,7 @@
         <v>1</v>
       </c>
       <c r="B367" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -15047,7 +15047,7 @@
         <v>1</v>
       </c>
       <c r="B368" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -15058,7 +15058,7 @@
         <v>1</v>
       </c>
       <c r="B369" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C369">
         <v>0</v>
@@ -15069,7 +15069,7 @@
         <v>1</v>
       </c>
       <c r="B370" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -15080,7 +15080,7 @@
         <v>1</v>
       </c>
       <c r="B371" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C371">
         <v>0</v>
@@ -15091,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="B372" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -15102,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="B373" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="B374" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -15124,7 +15124,7 @@
         <v>1</v>
       </c>
       <c r="B375" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -15135,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="B376" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -15146,7 +15146,7 @@
         <v>1</v>
       </c>
       <c r="B377" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -15157,7 +15157,7 @@
         <v>1</v>
       </c>
       <c r="B378" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -15168,7 +15168,7 @@
         <v>1</v>
       </c>
       <c r="B379" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="B380" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -15190,7 +15190,7 @@
         <v>1</v>
       </c>
       <c r="B381" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -15201,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="B382" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -15212,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="B383" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -15223,7 +15223,7 @@
         <v>1</v>
       </c>
       <c r="B384" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -15234,7 +15234,7 @@
         <v>1</v>
       </c>
       <c r="B385" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -15245,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="B386" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -15256,7 +15256,7 @@
         <v>1</v>
       </c>
       <c r="B387" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -15267,7 +15267,7 @@
         <v>1</v>
       </c>
       <c r="B388" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -15278,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="B389" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -15289,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="B390" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C390">
         <v>0</v>
@@ -15300,7 +15300,7 @@
         <v>1</v>
       </c>
       <c r="B391" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="B392" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="B393" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -15333,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="B394" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -15344,7 +15344,7 @@
         <v>1</v>
       </c>
       <c r="B395" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -15355,7 +15355,7 @@
         <v>1</v>
       </c>
       <c r="B396" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -15366,7 +15366,7 @@
         <v>1</v>
       </c>
       <c r="B397" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -15377,7 +15377,7 @@
         <v>1</v>
       </c>
       <c r="B398" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -15388,7 +15388,7 @@
         <v>1</v>
       </c>
       <c r="B399" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -15399,7 +15399,7 @@
         <v>1</v>
       </c>
       <c r="B400" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -15410,7 +15410,7 @@
         <v>1</v>
       </c>
       <c r="B401" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -15421,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="B402" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -15432,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="B403" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -15443,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="B404" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -15454,7 +15454,7 @@
         <v>1</v>
       </c>
       <c r="B405" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -15465,7 +15465,7 @@
         <v>1</v>
       </c>
       <c r="B406" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -15476,7 +15476,7 @@
         <v>1</v>
       </c>
       <c r="B407" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -15487,7 +15487,7 @@
         <v>1</v>
       </c>
       <c r="B408" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -15498,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="B409" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="B410" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -15520,7 +15520,7 @@
         <v>1</v>
       </c>
       <c r="B411" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -15531,7 +15531,7 @@
         <v>1</v>
       </c>
       <c r="B412" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -15542,7 +15542,7 @@
         <v>1</v>
       </c>
       <c r="B413" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -15553,7 +15553,7 @@
         <v>1</v>
       </c>
       <c r="B414" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -15564,7 +15564,7 @@
         <v>1</v>
       </c>
       <c r="B415" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -15575,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="B416" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -15586,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="B417" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -15597,7 +15597,7 @@
         <v>1</v>
       </c>
       <c r="B418" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -15608,7 +15608,7 @@
         <v>1</v>
       </c>
       <c r="B419" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -15619,7 +15619,7 @@
         <v>1</v>
       </c>
       <c r="B420" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C420">
         <v>0</v>
@@ -15630,7 +15630,7 @@
         <v>1</v>
       </c>
       <c r="B421" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -15641,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="B422" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C422">
         <v>0</v>
@@ -15652,7 +15652,7 @@
         <v>1</v>
       </c>
       <c r="B423" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -15663,7 +15663,7 @@
         <v>1</v>
       </c>
       <c r="B424" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -15674,7 +15674,7 @@
         <v>1</v>
       </c>
       <c r="B425" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -15685,7 +15685,7 @@
         <v>1</v>
       </c>
       <c r="B426" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="B427" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -15707,7 +15707,7 @@
         <v>1</v>
       </c>
       <c r="B428" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -15718,7 +15718,7 @@
         <v>1</v>
       </c>
       <c r="B429" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -15729,7 +15729,7 @@
         <v>1</v>
       </c>
       <c r="B430" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="B431" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -15751,7 +15751,7 @@
         <v>1</v>
       </c>
       <c r="B432" t="s">
-        <v>290</v>
+        <v>743</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -15762,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="B433" t="s">
-        <v>743</v>
+        <v>297</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -15773,7 +15773,7 @@
         <v>1</v>
       </c>
       <c r="B434" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -15784,7 +15784,7 @@
         <v>1</v>
       </c>
       <c r="B435" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -15795,7 +15795,7 @@
         <v>1</v>
       </c>
       <c r="B436" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -15806,7 +15806,7 @@
         <v>1</v>
       </c>
       <c r="B437" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -15817,7 +15817,7 @@
         <v>1</v>
       </c>
       <c r="B438" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -15828,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="B439" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -15839,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="B440" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C440">
         <v>0</v>
@@ -15850,7 +15850,7 @@
         <v>1</v>
       </c>
       <c r="B441" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C441">
         <v>0</v>
@@ -15861,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="B442" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -15872,7 +15872,7 @@
         <v>1</v>
       </c>
       <c r="B443" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -15883,7 +15883,7 @@
         <v>1</v>
       </c>
       <c r="B444" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -15894,7 +15894,7 @@
         <v>1</v>
       </c>
       <c r="B445" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -15905,7 +15905,7 @@
         <v>1</v>
       </c>
       <c r="B446" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C446">
         <v>0</v>
@@ -15916,7 +15916,7 @@
         <v>1</v>
       </c>
       <c r="B447" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="B448" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -15938,7 +15938,7 @@
         <v>1</v>
       </c>
       <c r="B449" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -15949,7 +15949,7 @@
         <v>1</v>
       </c>
       <c r="B450" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -15960,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="B451" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -15971,7 +15971,7 @@
         <v>1</v>
       </c>
       <c r="B452" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -15982,7 +15982,7 @@
         <v>1</v>
       </c>
       <c r="B453" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -15993,7 +15993,7 @@
         <v>1</v>
       </c>
       <c r="B454" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -16004,7 +16004,7 @@
         <v>1</v>
       </c>
       <c r="B455" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -16015,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="B456" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -16026,7 +16026,7 @@
         <v>1</v>
       </c>
       <c r="B457" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -16037,7 +16037,7 @@
         <v>1</v>
       </c>
       <c r="B458" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -16048,7 +16048,7 @@
         <v>1</v>
       </c>
       <c r="B459" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -16059,7 +16059,7 @@
         <v>1</v>
       </c>
       <c r="B460" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -16070,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="B461" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -16081,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="B462" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -16092,7 +16092,7 @@
         <v>1</v>
       </c>
       <c r="B463" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -16103,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="B464" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>1</v>
       </c>
       <c r="B465" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="B466" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -16136,7 +16136,7 @@
         <v>1</v>
       </c>
       <c r="B467" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -16147,7 +16147,7 @@
         <v>1</v>
       </c>
       <c r="B468" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C468">
         <v>0</v>
@@ -16158,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="B469" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -16169,7 +16169,7 @@
         <v>1</v>
       </c>
       <c r="B470" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -16180,7 +16180,7 @@
         <v>1</v>
       </c>
       <c r="B471" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -16191,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="B472" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C472">
         <v>0</v>
@@ -16202,7 +16202,7 @@
         <v>1</v>
       </c>
       <c r="B473" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -16213,7 +16213,7 @@
         <v>1</v>
       </c>
       <c r="B474" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -16224,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="B475" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -16235,7 +16235,7 @@
         <v>1</v>
       </c>
       <c r="B476" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -16246,7 +16246,7 @@
         <v>1</v>
       </c>
       <c r="B477" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -16257,7 +16257,7 @@
         <v>1</v>
       </c>
       <c r="B478" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -16268,7 +16268,7 @@
         <v>1</v>
       </c>
       <c r="B479" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -16279,7 +16279,7 @@
         <v>1</v>
       </c>
       <c r="B480" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -16290,7 +16290,7 @@
         <v>1</v>
       </c>
       <c r="B481" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -16301,7 +16301,7 @@
         <v>1</v>
       </c>
       <c r="B482" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -16312,7 +16312,7 @@
         <v>1</v>
       </c>
       <c r="B483" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -16323,7 +16323,7 @@
         <v>1</v>
       </c>
       <c r="B484" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -16334,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="B485" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -16345,7 +16345,7 @@
         <v>1</v>
       </c>
       <c r="B486" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -16356,7 +16356,7 @@
         <v>1</v>
       </c>
       <c r="B487" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -16367,7 +16367,7 @@
         <v>1</v>
       </c>
       <c r="B488" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -16378,7 +16378,7 @@
         <v>1</v>
       </c>
       <c r="B489" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -16389,7 +16389,7 @@
         <v>1</v>
       </c>
       <c r="B490" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -16400,7 +16400,7 @@
         <v>1</v>
       </c>
       <c r="B491" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -16411,7 +16411,7 @@
         <v>1</v>
       </c>
       <c r="B492" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -16422,7 +16422,7 @@
         <v>1</v>
       </c>
       <c r="B493" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -16433,7 +16433,7 @@
         <v>1</v>
       </c>
       <c r="B494" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -16444,7 +16444,7 @@
         <v>1</v>
       </c>
       <c r="B495" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -16455,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="B496" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -16466,7 +16466,7 @@
         <v>1</v>
       </c>
       <c r="B497" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -16477,7 +16477,7 @@
         <v>1</v>
       </c>
       <c r="B498" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -16488,7 +16488,7 @@
         <v>1</v>
       </c>
       <c r="B499" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -16499,7 +16499,7 @@
         <v>1</v>
       </c>
       <c r="B500" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="B501" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -16521,7 +16521,7 @@
         <v>1</v>
       </c>
       <c r="B502" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -16532,7 +16532,7 @@
         <v>1</v>
       </c>
       <c r="B503" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -16543,7 +16543,7 @@
         <v>1</v>
       </c>
       <c r="B504" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C504">
         <v>0</v>
@@ -16554,7 +16554,7 @@
         <v>1</v>
       </c>
       <c r="B505" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="B506" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -16576,7 +16576,7 @@
         <v>1</v>
       </c>
       <c r="B507" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -16587,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="B508" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -16598,7 +16598,7 @@
         <v>1</v>
       </c>
       <c r="B509" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -16609,7 +16609,7 @@
         <v>1</v>
       </c>
       <c r="B510" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -16620,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="B511" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -16631,7 +16631,7 @@
         <v>1</v>
       </c>
       <c r="B512" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C512">
         <v>0</v>
@@ -16642,7 +16642,7 @@
         <v>1</v>
       </c>
       <c r="B513" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -16653,7 +16653,7 @@
         <v>1</v>
       </c>
       <c r="B514" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -16664,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="B515" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -16675,7 +16675,7 @@
         <v>1</v>
       </c>
       <c r="B516" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -16686,7 +16686,7 @@
         <v>1</v>
       </c>
       <c r="B517" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -16697,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="B518" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C518">
         <v>0</v>
@@ -16708,7 +16708,7 @@
         <v>1</v>
       </c>
       <c r="B519" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -16719,7 +16719,7 @@
         <v>1</v>
       </c>
       <c r="B520" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -16730,7 +16730,7 @@
         <v>1</v>
       </c>
       <c r="B521" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -16741,7 +16741,7 @@
         <v>1</v>
       </c>
       <c r="B522" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C522">
         <v>0</v>
@@ -16752,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="B523" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -16763,7 +16763,7 @@
         <v>1</v>
       </c>
       <c r="B524" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C524">
         <v>0</v>
@@ -16774,7 +16774,7 @@
         <v>1</v>
       </c>
       <c r="B525" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -16785,7 +16785,7 @@
         <v>1</v>
       </c>
       <c r="B526" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C526">
         <v>0</v>
@@ -16796,7 +16796,7 @@
         <v>1</v>
       </c>
       <c r="B527" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -16807,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="B528" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C528">
         <v>0</v>
@@ -16818,7 +16818,7 @@
         <v>1</v>
       </c>
       <c r="B529" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -16829,7 +16829,7 @@
         <v>1</v>
       </c>
       <c r="B530" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C530">
         <v>0</v>
@@ -16840,7 +16840,7 @@
         <v>1</v>
       </c>
       <c r="B531" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -16851,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="B532" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -16862,7 +16862,7 @@
         <v>1</v>
       </c>
       <c r="B533" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -16873,7 +16873,7 @@
         <v>1</v>
       </c>
       <c r="B534" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C534">
         <v>0</v>
@@ -16884,7 +16884,7 @@
         <v>1</v>
       </c>
       <c r="B535" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -16895,7 +16895,7 @@
         <v>1</v>
       </c>
       <c r="B536" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -16906,7 +16906,7 @@
         <v>1</v>
       </c>
       <c r="B537" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -16917,7 +16917,7 @@
         <v>1</v>
       </c>
       <c r="B538" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C538">
         <v>0</v>
@@ -16928,7 +16928,7 @@
         <v>1</v>
       </c>
       <c r="B539" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -16939,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="B540" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -16950,7 +16950,7 @@
         <v>1</v>
       </c>
       <c r="B541" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -16961,7 +16961,7 @@
         <v>1</v>
       </c>
       <c r="B542" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C542">
         <v>0</v>
@@ -16972,7 +16972,7 @@
         <v>1</v>
       </c>
       <c r="B543" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>1</v>
       </c>
       <c r="B544" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C544">
         <v>0</v>
@@ -16994,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="B545" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -17005,7 +17005,7 @@
         <v>1</v>
       </c>
       <c r="B546" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C546">
         <v>0</v>
@@ -17016,7 +17016,7 @@
         <v>1</v>
       </c>
       <c r="B547" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -17027,7 +17027,7 @@
         <v>1</v>
       </c>
       <c r="B548" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C548">
         <v>0</v>
@@ -17038,7 +17038,7 @@
         <v>1</v>
       </c>
       <c r="B549" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -17049,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="B550" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C550">
         <v>0</v>
@@ -17060,7 +17060,7 @@
         <v>1</v>
       </c>
       <c r="B551" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -17071,7 +17071,7 @@
         <v>1</v>
       </c>
       <c r="B552" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C552">
         <v>0</v>
@@ -17082,7 +17082,7 @@
         <v>1</v>
       </c>
       <c r="B553" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -17093,7 +17093,7 @@
         <v>1</v>
       </c>
       <c r="B554" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C554">
         <v>0</v>
@@ -17104,7 +17104,7 @@
         <v>1</v>
       </c>
       <c r="B555" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C555">
         <v>0</v>
@@ -17115,7 +17115,7 @@
         <v>1</v>
       </c>
       <c r="B556" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C556">
         <v>0</v>
@@ -17126,7 +17126,7 @@
         <v>1</v>
       </c>
       <c r="B557" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C557">
         <v>0</v>
@@ -17137,7 +17137,7 @@
         <v>1</v>
       </c>
       <c r="B558" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C558">
         <v>0</v>
@@ -17148,7 +17148,7 @@
         <v>1</v>
       </c>
       <c r="B559" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="B560" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -17170,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="B561" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -17181,7 +17181,7 @@
         <v>1</v>
       </c>
       <c r="B562" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C562">
         <v>0</v>
@@ -17192,7 +17192,7 @@
         <v>1</v>
       </c>
       <c r="B563" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C563">
         <v>0</v>
@@ -17203,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="B564" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C564">
         <v>0</v>
@@ -17214,7 +17214,7 @@
         <v>1</v>
       </c>
       <c r="B565" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -17225,7 +17225,7 @@
         <v>1</v>
       </c>
       <c r="B566" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C566">
         <v>0</v>
@@ -17236,7 +17236,7 @@
         <v>1</v>
       </c>
       <c r="B567" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="B568" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C568">
         <v>0</v>
@@ -17258,7 +17258,7 @@
         <v>1</v>
       </c>
       <c r="B569" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -17269,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="B570" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -17280,7 +17280,7 @@
         <v>1</v>
       </c>
       <c r="B571" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -17291,7 +17291,7 @@
         <v>1</v>
       </c>
       <c r="B572" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C572">
         <v>0</v>
@@ -17302,7 +17302,7 @@
         <v>1</v>
       </c>
       <c r="B573" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -17313,7 +17313,7 @@
         <v>1</v>
       </c>
       <c r="B574" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C574">
         <v>0</v>
@@ -17324,7 +17324,7 @@
         <v>1</v>
       </c>
       <c r="B575" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -17335,7 +17335,7 @@
         <v>1</v>
       </c>
       <c r="B576" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C576">
         <v>0</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="B577" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C577">
         <v>0</v>
@@ -17357,7 +17357,7 @@
         <v>1</v>
       </c>
       <c r="B578" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C578">
         <v>0</v>
@@ -17368,7 +17368,7 @@
         <v>1</v>
       </c>
       <c r="B579" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C579">
         <v>0</v>
@@ -17379,7 +17379,7 @@
         <v>1</v>
       </c>
       <c r="B580" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C580">
         <v>0</v>
@@ -17390,7 +17390,7 @@
         <v>1</v>
       </c>
       <c r="B581" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C581">
         <v>0</v>
@@ -17401,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="B582" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C582">
         <v>0</v>
@@ -17412,7 +17412,7 @@
         <v>1</v>
       </c>
       <c r="B583" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -17423,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="B584" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C584">
         <v>0</v>
@@ -17434,7 +17434,7 @@
         <v>1</v>
       </c>
       <c r="B585" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -17445,7 +17445,7 @@
         <v>1</v>
       </c>
       <c r="B586" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C586">
         <v>0</v>
@@ -17456,7 +17456,7 @@
         <v>1</v>
       </c>
       <c r="B587" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="B588" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C588">
         <v>0</v>
@@ -17478,7 +17478,7 @@
         <v>1</v>
       </c>
       <c r="B589" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C589">
         <v>0</v>
@@ -17489,7 +17489,7 @@
         <v>1</v>
       </c>
       <c r="B590" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C590">
         <v>0</v>
@@ -17500,7 +17500,7 @@
         <v>1</v>
       </c>
       <c r="B591" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C591">
         <v>0</v>
@@ -17511,7 +17511,7 @@
         <v>1</v>
       </c>
       <c r="B592" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C592">
         <v>0</v>
@@ -17522,7 +17522,7 @@
         <v>1</v>
       </c>
       <c r="B593" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -17533,7 +17533,7 @@
         <v>1</v>
       </c>
       <c r="B594" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C594">
         <v>0</v>
@@ -17544,7 +17544,7 @@
         <v>1</v>
       </c>
       <c r="B595" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -17555,7 +17555,7 @@
         <v>1</v>
       </c>
       <c r="B596" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C596">
         <v>0</v>
@@ -17566,7 +17566,7 @@
         <v>1</v>
       </c>
       <c r="B597" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C597">
         <v>0</v>
@@ -17577,7 +17577,7 @@
         <v>1</v>
       </c>
       <c r="B598" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C598">
         <v>0</v>
@@ -17588,7 +17588,7 @@
         <v>1</v>
       </c>
       <c r="B599" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -17599,7 +17599,7 @@
         <v>1</v>
       </c>
       <c r="B600" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C600">
         <v>0</v>
@@ -17610,7 +17610,7 @@
         <v>1</v>
       </c>
       <c r="B601" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C601">
         <v>0</v>
@@ -17621,7 +17621,7 @@
         <v>1</v>
       </c>
       <c r="B602" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C602">
         <v>0</v>
@@ -17632,7 +17632,7 @@
         <v>1</v>
       </c>
       <c r="B603" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C603">
         <v>0</v>
@@ -17643,7 +17643,7 @@
         <v>1</v>
       </c>
       <c r="B604" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C604">
         <v>0</v>
@@ -17654,7 +17654,7 @@
         <v>1</v>
       </c>
       <c r="B605" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -17665,7 +17665,7 @@
         <v>1</v>
       </c>
       <c r="B606" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C606">
         <v>0</v>
@@ -17676,7 +17676,7 @@
         <v>1</v>
       </c>
       <c r="B607" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C607">
         <v>0</v>
@@ -17687,7 +17687,7 @@
         <v>1</v>
       </c>
       <c r="B608" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C608">
         <v>0</v>
@@ -17698,7 +17698,7 @@
         <v>1</v>
       </c>
       <c r="B609" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C609">
         <v>0</v>
@@ -17709,7 +17709,7 @@
         <v>1</v>
       </c>
       <c r="B610" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C610">
         <v>0</v>
@@ -17720,7 +17720,7 @@
         <v>1</v>
       </c>
       <c r="B611" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C611">
         <v>0</v>
@@ -17731,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="B612" t="s">
-        <v>582</v>
+        <v>233</v>
       </c>
       <c r="C612">
         <v>0</v>
@@ -17742,7 +17742,7 @@
         <v>1</v>
       </c>
       <c r="B613" t="s">
-        <v>233</v>
+        <v>585</v>
       </c>
       <c r="C613">
         <v>0</v>
@@ -17753,7 +17753,7 @@
         <v>1</v>
       </c>
       <c r="B614" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C614">
         <v>0</v>
@@ -17764,7 +17764,7 @@
         <v>1</v>
       </c>
       <c r="B615" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C615">
         <v>0</v>
@@ -17775,7 +17775,7 @@
         <v>1</v>
       </c>
       <c r="B616" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C616">
         <v>0</v>
@@ -17786,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="B617" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="B618" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C618">
         <v>0</v>
@@ -17808,7 +17808,7 @@
         <v>1</v>
       </c>
       <c r="B619" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C619">
         <v>0</v>
@@ -17819,7 +17819,7 @@
         <v>1</v>
       </c>
       <c r="B620" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -17830,7 +17830,7 @@
         <v>1</v>
       </c>
       <c r="B621" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C621">
         <v>0</v>
@@ -17841,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="B622" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C622">
         <v>0</v>
@@ -17852,7 +17852,7 @@
         <v>1</v>
       </c>
       <c r="B623" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C623">
         <v>0</v>
@@ -17863,7 +17863,7 @@
         <v>1</v>
       </c>
       <c r="B624" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C624">
         <v>0</v>
@@ -17874,7 +17874,7 @@
         <v>1</v>
       </c>
       <c r="B625" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -17885,7 +17885,7 @@
         <v>1</v>
       </c>
       <c r="B626" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C626">
         <v>0</v>
@@ -17896,7 +17896,7 @@
         <v>1</v>
       </c>
       <c r="B627" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C627">
         <v>0</v>
@@ -17907,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="B628" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C628">
         <v>0</v>
@@ -17918,7 +17918,7 @@
         <v>1</v>
       </c>
       <c r="B629" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C629">
         <v>0</v>
@@ -17929,7 +17929,7 @@
         <v>1</v>
       </c>
       <c r="B630" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C630">
         <v>0</v>
@@ -17940,7 +17940,7 @@
         <v>1</v>
       </c>
       <c r="B631" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C631">
         <v>0</v>
@@ -17951,7 +17951,7 @@
         <v>1</v>
       </c>
       <c r="B632" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C632">
         <v>0</v>
@@ -17962,7 +17962,7 @@
         <v>1</v>
       </c>
       <c r="B633" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C633">
         <v>0</v>
@@ -17973,7 +17973,7 @@
         <v>1</v>
       </c>
       <c r="B634" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C634">
         <v>0</v>
@@ -17984,7 +17984,7 @@
         <v>1</v>
       </c>
       <c r="B635" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C635">
         <v>0</v>
@@ -17995,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="B636" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C636">
         <v>0</v>
@@ -18006,7 +18006,7 @@
         <v>1</v>
       </c>
       <c r="B637" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C637">
         <v>0</v>
@@ -18017,7 +18017,7 @@
         <v>1</v>
       </c>
       <c r="B638" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="C638">
         <v>0</v>
@@ -18028,7 +18028,7 @@
         <v>1</v>
       </c>
       <c r="B639" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C639">
         <v>0</v>
@@ -18039,7 +18039,7 @@
         <v>1</v>
       </c>
       <c r="B640" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C640">
         <v>0</v>
@@ -18050,7 +18050,7 @@
         <v>1</v>
       </c>
       <c r="B641" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C641">
         <v>0</v>
@@ -18061,7 +18061,7 @@
         <v>1</v>
       </c>
       <c r="B642" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C642">
         <v>0</v>
@@ -18072,7 +18072,7 @@
         <v>1</v>
       </c>
       <c r="B643" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C643">
         <v>0</v>
@@ -18083,7 +18083,7 @@
         <v>1</v>
       </c>
       <c r="B644" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C644">
         <v>0</v>
@@ -18094,7 +18094,7 @@
         <v>1</v>
       </c>
       <c r="B645" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C645">
         <v>0</v>
@@ -18105,7 +18105,7 @@
         <v>1</v>
       </c>
       <c r="B646" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C646">
         <v>0</v>
@@ -18116,7 +18116,7 @@
         <v>1</v>
       </c>
       <c r="B647" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C647">
         <v>0</v>
@@ -18127,7 +18127,7 @@
         <v>1</v>
       </c>
       <c r="B648" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C648">
         <v>0</v>
@@ -18135,10 +18135,10 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B649" t="s">
-        <v>657</v>
+        <v>74</v>
       </c>
       <c r="C649">
         <v>0</v>
@@ -18146,13 +18146,16 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B650" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C650">
         <v>0</v>
+      </c>
+      <c r="F650" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -18160,13 +18163,10 @@
         <v>1</v>
       </c>
       <c r="B651" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C651">
         <v>0</v>
-      </c>
-      <c r="F651" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
@@ -18174,7 +18174,7 @@
         <v>1</v>
       </c>
       <c r="B652" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C652">
         <v>0</v>
@@ -18182,10 +18182,10 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B653" t="s">
-        <v>130</v>
+        <v>449</v>
       </c>
       <c r="C653">
         <v>0</v>
@@ -18196,7 +18196,7 @@
         <v>-1</v>
       </c>
       <c r="B654" t="s">
-        <v>449</v>
+        <v>146</v>
       </c>
       <c r="C654">
         <v>0</v>
@@ -18204,10 +18204,10 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B655" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C655">
         <v>0</v>
@@ -18218,7 +18218,7 @@
         <v>1</v>
       </c>
       <c r="B656" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="C656">
         <v>0</v>
@@ -18229,7 +18229,7 @@
         <v>1</v>
       </c>
       <c r="B657" t="s">
-        <v>81</v>
+        <v>555</v>
       </c>
       <c r="C657">
         <v>0</v>
@@ -18237,10 +18237,10 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B658" t="s">
-        <v>555</v>
+        <v>324</v>
       </c>
       <c r="C658">
         <v>0</v>
@@ -18251,7 +18251,7 @@
         <v>-1</v>
       </c>
       <c r="B659" t="s">
-        <v>324</v>
+        <v>425</v>
       </c>
       <c r="C659">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>-1</v>
       </c>
       <c r="B660" t="s">
-        <v>425</v>
+        <v>545</v>
       </c>
       <c r="C660">
         <v>0</v>
@@ -18273,7 +18273,7 @@
         <v>-1</v>
       </c>
       <c r="B661" t="s">
-        <v>545</v>
+        <v>658</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -18281,10 +18281,10 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B662" t="s">
-        <v>658</v>
+        <v>190</v>
       </c>
       <c r="C662">
         <v>0</v>
@@ -18295,7 +18295,7 @@
         <v>1</v>
       </c>
       <c r="B663" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C663">
         <v>0</v>
@@ -18306,7 +18306,7 @@
         <v>1</v>
       </c>
       <c r="B664" t="s">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="C664">
         <v>0</v>
@@ -18317,7 +18317,7 @@
         <v>1</v>
       </c>
       <c r="B665" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -18328,7 +18328,7 @@
         <v>1</v>
       </c>
       <c r="B666" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C666">
         <v>0</v>
@@ -18339,7 +18339,7 @@
         <v>1</v>
       </c>
       <c r="B667" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C667">
         <v>0</v>
@@ -18350,7 +18350,7 @@
         <v>1</v>
       </c>
       <c r="B668" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="C668">
         <v>0</v>
@@ -18361,7 +18361,7 @@
         <v>1</v>
       </c>
       <c r="B669" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C669">
         <v>0</v>
@@ -18372,7 +18372,7 @@
         <v>1</v>
       </c>
       <c r="B670" t="s">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="C670">
         <v>0</v>
@@ -18383,7 +18383,7 @@
         <v>1</v>
       </c>
       <c r="B671" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="C671">
         <v>0</v>
@@ -18394,7 +18394,7 @@
         <v>1</v>
       </c>
       <c r="B672" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C672">
         <v>0</v>
@@ -18405,7 +18405,7 @@
         <v>1</v>
       </c>
       <c r="B673" t="s">
-        <v>460</v>
+        <v>623</v>
       </c>
       <c r="C673">
         <v>0</v>
@@ -18413,10 +18413,10 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B674" t="s">
-        <v>623</v>
+        <v>163</v>
       </c>
       <c r="C674">
         <v>0</v>
@@ -18427,7 +18427,7 @@
         <v>-1</v>
       </c>
       <c r="B675" t="s">
-        <v>742</v>
+        <v>802</v>
       </c>
       <c r="C675">
         <v>1</v>
@@ -18438,13 +18438,10 @@
         <v>-1</v>
       </c>
       <c r="B676" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="C676">
         <v>1</v>
-      </c>
-      <c r="D676" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
@@ -18452,13 +18449,13 @@
         <v>-1</v>
       </c>
       <c r="B677" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C677">
         <v>1</v>
       </c>
       <c r="D677" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
@@ -18466,13 +18463,13 @@
         <v>-1</v>
       </c>
       <c r="B678" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C678">
         <v>1</v>
       </c>
       <c r="D678" t="s">
-        <v>10</v>
+        <v>699</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
@@ -18480,13 +18477,13 @@
         <v>-1</v>
       </c>
       <c r="B679" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C679">
         <v>1</v>
       </c>
       <c r="D679" t="s">
-        <v>701</v>
+        <v>10</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
@@ -18494,13 +18491,13 @@
         <v>-1</v>
       </c>
       <c r="B680" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C680">
         <v>1</v>
       </c>
       <c r="D680" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
@@ -18508,13 +18505,13 @@
         <v>-1</v>
       </c>
       <c r="B681" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C681">
         <v>1</v>
       </c>
       <c r="D681" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
@@ -18522,13 +18519,13 @@
         <v>-1</v>
       </c>
       <c r="B682" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C682">
         <v>1</v>
       </c>
       <c r="D682" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
@@ -18536,13 +18533,13 @@
         <v>-1</v>
       </c>
       <c r="B683" t="s">
-        <v>823</v>
+        <v>722</v>
       </c>
       <c r="C683">
         <v>1</v>
       </c>
       <c r="D683" t="s">
-        <v>33</v>
+        <v>704</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
@@ -18550,13 +18547,13 @@
         <v>-1</v>
       </c>
       <c r="B684" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C684">
         <v>1</v>
       </c>
       <c r="D684" t="s">
-        <v>709</v>
+        <v>33</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
@@ -18564,13 +18561,13 @@
         <v>-1</v>
       </c>
       <c r="B685" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C685">
         <v>1</v>
       </c>
       <c r="D685" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
@@ -18578,13 +18575,13 @@
         <v>-1</v>
       </c>
       <c r="B686" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C686">
         <v>1</v>
       </c>
       <c r="D686" t="s">
-        <v>45</v>
+        <v>711</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
@@ -18592,10 +18589,13 @@
         <v>-1</v>
       </c>
       <c r="B687" t="s">
-        <v>725</v>
+        <v>826</v>
       </c>
       <c r="C687">
         <v>1</v>
+      </c>
+      <c r="D687" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
@@ -18603,7 +18603,7 @@
         <v>-1</v>
       </c>
       <c r="B688" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C688">
         <v>1</v>
@@ -18614,7 +18614,7 @@
         <v>-1</v>
       </c>
       <c r="B689" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C689">
         <v>1</v>
@@ -18625,7 +18625,7 @@
         <v>-1</v>
       </c>
       <c r="B690" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C690">
         <v>1</v>
@@ -18636,7 +18636,7 @@
         <v>-1</v>
       </c>
       <c r="B691" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C691">
         <v>1</v>
@@ -18647,7 +18647,7 @@
         <v>-1</v>
       </c>
       <c r="B692" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C692">
         <v>1</v>
@@ -18658,7 +18658,7 @@
         <v>-1</v>
       </c>
       <c r="B693" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C693">
         <v>1</v>
@@ -18669,7 +18669,7 @@
         <v>-1</v>
       </c>
       <c r="B694" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C694">
         <v>1</v>
@@ -18680,7 +18680,7 @@
         <v>-1</v>
       </c>
       <c r="B695" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C695">
         <v>1</v>
@@ -18691,7 +18691,7 @@
         <v>-1</v>
       </c>
       <c r="B696" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C696">
         <v>1</v>
@@ -18702,7 +18702,7 @@
         <v>-1</v>
       </c>
       <c r="B697" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C697">
         <v>1</v>
@@ -18713,7 +18713,7 @@
         <v>-1</v>
       </c>
       <c r="B698" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C698">
         <v>1</v>
@@ -18724,7 +18724,7 @@
         <v>-1</v>
       </c>
       <c r="B699" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C699">
         <v>1</v>
@@ -18735,7 +18735,7 @@
         <v>-1</v>
       </c>
       <c r="B700" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C700">
         <v>1</v>
@@ -18746,7 +18746,7 @@
         <v>-1</v>
       </c>
       <c r="B701" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C701">
         <v>1</v>
@@ -18757,7 +18757,7 @@
         <v>-1</v>
       </c>
       <c r="B702" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C702">
         <v>1</v>
@@ -18768,7 +18768,7 @@
         <v>-1</v>
       </c>
       <c r="B703" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C703">
         <v>1</v>
@@ -18779,7 +18779,7 @@
         <v>-1</v>
       </c>
       <c r="B704" t="s">
-        <v>827</v>
+        <v>741</v>
       </c>
       <c r="C704">
         <v>1</v>
@@ -18790,7 +18790,7 @@
         <v>-1</v>
       </c>
       <c r="B705" t="s">
-        <v>804</v>
+        <v>827</v>
       </c>
       <c r="C705">
         <v>1</v>
@@ -18801,7 +18801,7 @@
         <v>-1</v>
       </c>
       <c r="B706" t="s">
-        <v>828</v>
+        <v>804</v>
       </c>
       <c r="C706">
         <v>1</v>
@@ -18812,7 +18812,7 @@
         <v>-1</v>
       </c>
       <c r="B707" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C707">
         <v>1</v>
@@ -18823,7 +18823,7 @@
         <v>-1</v>
       </c>
       <c r="B708" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="C708">
         <v>1</v>
@@ -18834,7 +18834,7 @@
         <v>-1</v>
       </c>
       <c r="B709" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
       <c r="C709">
         <v>1</v>
@@ -18845,7 +18845,7 @@
         <v>-1</v>
       </c>
       <c r="B710" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C710">
         <v>1</v>
@@ -18856,7 +18856,7 @@
         <v>-1</v>
       </c>
       <c r="B711" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C711">
         <v>1</v>
@@ -18867,7 +18867,7 @@
         <v>-1</v>
       </c>
       <c r="B712" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C712">
         <v>1</v>
@@ -18878,7 +18878,7 @@
         <v>-1</v>
       </c>
       <c r="B713" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C713">
         <v>1</v>
@@ -18889,7 +18889,7 @@
         <v>-1</v>
       </c>
       <c r="B714" t="s">
-        <v>806</v>
+        <v>834</v>
       </c>
       <c r="C714">
         <v>1</v>
@@ -18900,7 +18900,7 @@
         <v>-1</v>
       </c>
       <c r="B715" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C715">
         <v>1</v>
@@ -18911,7 +18911,7 @@
         <v>-1</v>
       </c>
       <c r="B716" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C716">
         <v>1</v>
@@ -18922,10 +18922,10 @@
         <v>-1</v>
       </c>
       <c r="B717" t="s">
-        <v>163</v>
+        <v>808</v>
       </c>
       <c r="C717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
